--- a/Fantasy_TeamList_1.xlsx
+++ b/Fantasy_TeamList_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bullet/Documents/Datum/Projects/Baseball/bref-2020-ootp-scrape/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bullet/Documents/Datum/Projects/Baseball/bref-2020-ootp-scrape-pages/far-from-normal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -218,9 +218,6 @@
     <t>Mike Minor (Tex - SP)</t>
   </si>
   <si>
-    <t>Shin-soo Choo (Tex - OF)</t>
-  </si>
-  <si>
     <t>Garrett Hampson (Col - 2B,SS,OF)</t>
   </si>
   <si>
@@ -1140,6 +1137,9 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Shin-Soo Choo (Tex - OF)</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1518,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C36" sqref="C36"/>
+      <selection pane="topRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1528,7 +1528,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1540,44 +1540,44 @@
         <v>52</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -1586,45 +1586,45 @@
         <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -1636,42 +1636,42 @@
         <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -1680,45 +1680,45 @@
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -1727,45 +1727,45 @@
         <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -1774,45 +1774,45 @@
         <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>25</v>
@@ -1821,45 +1821,45 @@
         <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
@@ -1871,42 +1871,42 @@
         <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
@@ -1915,45 +1915,45 @@
         <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -1962,45 +1962,45 @@
         <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>367</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -2009,45 +2009,45 @@
         <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>20</v>
@@ -2059,42 +2059,42 @@
         <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -2103,45 +2103,45 @@
         <v>45</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
@@ -2150,45 +2150,45 @@
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
@@ -2200,42 +2200,42 @@
         <v>57</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -2247,42 +2247,42 @@
         <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>2</v>
@@ -2294,42 +2294,42 @@
         <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
@@ -2338,45 +2338,45 @@
         <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -2388,42 +2388,42 @@
         <v>56</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>6</v>
@@ -2432,45 +2432,45 @@
         <v>37</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>8</v>
@@ -2479,45 +2479,45 @@
         <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>16</v>
@@ -2526,45 +2526,45 @@
         <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -2573,45 +2573,45 @@
         <v>34</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>10</v>
@@ -2620,45 +2620,45 @@
         <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
@@ -2667,45 +2667,45 @@
         <v>36</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>17</v>
@@ -2714,40 +2714,40 @@
         <v>43</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/Fantasy_TeamList_1.xlsx
+++ b/Fantasy_TeamList_1.xlsx
@@ -584,562 +584,562 @@
     <t>WillieWillieBummer</t>
   </si>
   <si>
+    <t>Franmil Reyes (Cle - OF)</t>
+  </si>
+  <si>
+    <t>Matthew Boyd (Det - SP)</t>
+  </si>
+  <si>
+    <t>Max Fried (Atl - SP)</t>
+  </si>
+  <si>
+    <t>Oscar Mercado (Cle - OF)</t>
+  </si>
+  <si>
+    <t>Willie Calhoun (Tex - OF)</t>
+  </si>
+  <si>
+    <t>Lance McCullers Jr. (Hou - SP)</t>
+  </si>
+  <si>
+    <t>Griffin Canning (LAA - SP)</t>
+  </si>
+  <si>
+    <t>Josh James (Hou - RP)</t>
+  </si>
+  <si>
+    <t>Ryan McMahon (Col - 1B,2B,3B)</t>
+  </si>
+  <si>
+    <t>Omar Narváez (Mil - C)</t>
+  </si>
+  <si>
+    <t>Freddy Peralta (Mil - SP,RP)</t>
+  </si>
+  <si>
+    <t>Giovanny Gallegos (StL - RP)</t>
+  </si>
+  <si>
+    <t>Brandon Lowe (TB - 1B,2B,OF)</t>
+  </si>
+  <si>
+    <t>Aaron Bummer (CWS - RP)</t>
+  </si>
+  <si>
+    <t>Joc Pederson (LAD - 1B,OF)</t>
+  </si>
+  <si>
+    <t>Corbin Burnes (Mil - SP,RP)</t>
+  </si>
+  <si>
+    <t>MacKenzie Gore  (SD - SP)</t>
+  </si>
+  <si>
+    <t>Chris Paddack  (SD - SP)</t>
+  </si>
+  <si>
+    <t>Gerrit Cole  (NYY - SP)</t>
+  </si>
+  <si>
+    <t>Gavin Lux  (LAD - 2B)</t>
+  </si>
+  <si>
+    <t>Matt Chapman  (Oak - 3B)</t>
+  </si>
+  <si>
+    <t>Matt Olson  (Oak - 1B)</t>
+  </si>
+  <si>
+    <t>Bo Bichette  (Tor - SS)</t>
+  </si>
+  <si>
+    <t>Keston Hiura  (Mil - 2B)</t>
+  </si>
+  <si>
+    <t>ReganSmash</t>
+  </si>
+  <si>
+    <t>Gary Sánchez (NYY - C)</t>
+  </si>
+  <si>
+    <t>Roberto Osuna (Hou - RP)</t>
+  </si>
+  <si>
+    <t>Nick Anderson (TB - RP)</t>
+  </si>
+  <si>
+    <t>Yuli Gurriel (Hou - 1B,3B)</t>
+  </si>
+  <si>
+    <t>Elvis Andrus (Tex - SS)</t>
+  </si>
+  <si>
+    <t>Michael Chavis (Bos - 1B,2B)</t>
+  </si>
+  <si>
+    <t>Caleb Smith (Mia - SP)</t>
+  </si>
+  <si>
+    <t>A.J. Puk (Oak - RP)</t>
+  </si>
+  <si>
+    <t>Hunter Renfroe (TB - OF)</t>
+  </si>
+  <si>
+    <t>Didi Gregorius (Phi - SS)</t>
+  </si>
+  <si>
+    <t>César Hernández (Cle - 2B)</t>
+  </si>
+  <si>
+    <t>Joe Jiménez (Det - RP)</t>
+  </si>
+  <si>
+    <t>Ross Stripling (LAD - SP,RP)</t>
+  </si>
+  <si>
+    <t>Aníbal Sánchez (Was - SP)</t>
+  </si>
+  <si>
+    <t>Avisaíl García (Mil - OF)</t>
+  </si>
+  <si>
+    <t>Nick Madrigal (CWS - 2B,SS)</t>
+  </si>
+  <si>
+    <t>Randal Grichuk (Tor - OF)</t>
+  </si>
+  <si>
+    <t>Zac Gallen  (Ari - SP)</t>
+  </si>
+  <si>
+    <t>Mike Soroka  (Atl - SP)</t>
+  </si>
+  <si>
+    <t>Yu Darvish  (ChC - SP)</t>
+  </si>
+  <si>
+    <t>Luis Castillo  (Cin - SP)</t>
+  </si>
+  <si>
+    <t>Luis Robert  (CWS - OF)</t>
+  </si>
+  <si>
+    <t>Yordan Alvarez  (Hou - OF)</t>
+  </si>
+  <si>
+    <t>Alex Bregman  (Hou - 3B,SS)</t>
+  </si>
+  <si>
+    <t>Juan Soto  (Was - OF)</t>
+  </si>
+  <si>
+    <t>B.Ruth is Dominican</t>
+  </si>
+  <si>
+    <t>Marcell Ozuna (Atl - OF)</t>
+  </si>
+  <si>
+    <t>Mike Moustakas (Cin - 2B,3B)</t>
+  </si>
+  <si>
+    <t>David Dahl (Col - OF)</t>
+  </si>
+  <si>
+    <t>Andrew Heaney (LAA - SP)</t>
+  </si>
+  <si>
+    <t>Héctor Neris (Phi - RP)</t>
+  </si>
+  <si>
+    <t>Khris Davis (Oak - Util)</t>
+  </si>
+  <si>
+    <t>Keone Kela (Pit - RP)</t>
+  </si>
+  <si>
+    <t>José Leclerc (Tex - SP,RP)</t>
+  </si>
+  <si>
+    <t>Edwin Encarnación (CWS - 1B)</t>
+  </si>
+  <si>
+    <t>Sean Doolittle (Was - RP)</t>
+  </si>
+  <si>
+    <t>Byron Buxton (Min - OF)</t>
+  </si>
+  <si>
+    <t>Sam Hilliard (Col - OF)</t>
+  </si>
+  <si>
+    <t>Kwang-Hyun Kim (StL - RP)</t>
+  </si>
+  <si>
+    <t>Austin Hays (Bal - OF)</t>
+  </si>
+  <si>
+    <t>Brandon Kintzler (Mia - RP)</t>
+  </si>
+  <si>
+    <t>Jesús Aguilar (Mia - 1B)</t>
+  </si>
+  <si>
+    <t>Jonathan Loaisiga (NYY - SP,RP)</t>
+  </si>
+  <si>
+    <t>José Berríos  (Min - SP)</t>
+  </si>
+  <si>
+    <t>Charlie Morton  (TB - SP)</t>
+  </si>
+  <si>
+    <t>Patrick Corbin  (Was - SP)</t>
+  </si>
+  <si>
+    <t>Tim Anderson  (CWS - SS)</t>
+  </si>
+  <si>
+    <t>J.T. Realmuto  (Phi - C)</t>
+  </si>
+  <si>
+    <t>Giancarlo Stanton  (NYY - OF)</t>
+  </si>
+  <si>
+    <t>George Springer  (Hou - OF)</t>
+  </si>
+  <si>
+    <t>Nolan Arenado  (Col - 3B)</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>Brandon Woodruff (Mil - SP)</t>
+  </si>
+  <si>
+    <t>Corey Seager (LAD - SS)</t>
+  </si>
+  <si>
+    <t>Will Smith (LAD - C)</t>
+  </si>
+  <si>
+    <t>Emilio Pagán (SD - RP)</t>
+  </si>
+  <si>
+    <t>Lorenzo Cain (Mil - OF)</t>
+  </si>
+  <si>
+    <t>Brandon Nimmo (NYM - OF)</t>
+  </si>
+  <si>
+    <t>Mark Canha (Oak - 1B,OF)</t>
+  </si>
+  <si>
+    <t>Mitch Keller (Pit - SP)</t>
+  </si>
+  <si>
+    <t>Trevor May (Min - RP)</t>
+  </si>
+  <si>
+    <t>Trent Grisham (SD - OF)</t>
+  </si>
+  <si>
+    <t>Shane Greene (Atl - RP)</t>
+  </si>
+  <si>
+    <t>Pablo López (Mia - SP)</t>
+  </si>
+  <si>
+    <t>Nico Hoerner (ChC - SS)</t>
+  </si>
+  <si>
+    <t>Wil Myers (SD - 1B,OF)</t>
+  </si>
+  <si>
+    <t>Matt Manning (Det - SP)</t>
+  </si>
+  <si>
+    <t>Niko Goodrum (Det - 1B,2B,SS,OF)</t>
+  </si>
+  <si>
+    <t>Daniel Hudson (Was - RP)</t>
+  </si>
+  <si>
+    <t>Julio Urías  (LAD - SP,RP)</t>
+  </si>
+  <si>
+    <t>Jesús Luzardo  (Oak - RP)</t>
+  </si>
+  <si>
+    <t>Stephen Strasburg  (Was - SP)</t>
+  </si>
+  <si>
+    <t>Josh Bell  (Pit - 1B)</t>
+  </si>
+  <si>
+    <t>Max Muncy  (LAD - 1B,2B,3B)</t>
+  </si>
+  <si>
+    <t>Austin Meadows  (TB - OF)</t>
+  </si>
+  <si>
+    <t>Pete Alonso  (NYM - 1B)</t>
+  </si>
+  <si>
+    <t>Rafael Devers  (Bos - 3B)</t>
+  </si>
+  <si>
+    <t>A Red Sock</t>
+  </si>
+  <si>
+    <t>Max Kepler (Min - OF)</t>
+  </si>
+  <si>
+    <t>Ken Giles (Tor - RP)</t>
+  </si>
+  <si>
+    <t>Willson Contreras (ChC - C)</t>
+  </si>
+  <si>
+    <t>Archie Bradley (Ari - RP)</t>
+  </si>
+  <si>
+    <t>Marcus Stroman (NYM - SP)</t>
+  </si>
+  <si>
+    <t>Amed Rosario (NYM - SS)</t>
+  </si>
+  <si>
+    <t>Justin Upton (LAA - OF)</t>
+  </si>
+  <si>
+    <t>Brett Gardner (NYY - OF)</t>
+  </si>
+  <si>
+    <t>Steven Matz (NYM - SP)</t>
+  </si>
+  <si>
+    <t>Danny Jansen (Tor - C)</t>
+  </si>
+  <si>
+    <t>Matt Barnes (Bos - RP)</t>
+  </si>
+  <si>
+    <t>Mike Tauchman (NYY - OF)</t>
+  </si>
+  <si>
+    <t>Jesse Winker (Cin - OF)</t>
+  </si>
+  <si>
+    <t>J.A. Happ (NYY - SP)</t>
+  </si>
+  <si>
+    <t>Hunter Harvey (Bal - RP)</t>
+  </si>
+  <si>
+    <t>John Means (Bal - SP)</t>
+  </si>
+  <si>
+    <t>Tommy La Stella (LAA - 2B,3B)</t>
+  </si>
+  <si>
+    <t>Jack Flaherty  (StL - SP)</t>
+  </si>
+  <si>
+    <t>Max Scherzer  (Was - SP)</t>
+  </si>
+  <si>
+    <t>Jacob deGrom  (NYM - SP)</t>
+  </si>
+  <si>
+    <t>Jorge Soler  (KC - OF)</t>
+  </si>
+  <si>
+    <t>Whit Merrifield  (KC - 2B,OF)</t>
+  </si>
+  <si>
+    <t>Anthony Rendon  (LAA - 3B)</t>
+  </si>
+  <si>
+    <t>Freddie Freeman  (Atl - 1B)</t>
+  </si>
+  <si>
+    <t>Francisco Lindor  (Cle - SS)</t>
+  </si>
+  <si>
+    <t>Againbetterlookinbro</t>
+  </si>
+  <si>
+    <t>Rhys Hoskins (Phi - 1B)</t>
+  </si>
+  <si>
+    <t>Carlos Santana (Cle - 1B)</t>
+  </si>
+  <si>
+    <t>Shohei Ohtani (Pitcher) (LAA - SP)</t>
+  </si>
+  <si>
+    <t>Adam Eaton (Was - OF)</t>
+  </si>
+  <si>
+    <t>Lourdes Gurriel Jr. (Tor - 2B,OF)</t>
+  </si>
+  <si>
+    <t>Ryan Pressly (Hou - RP)</t>
+  </si>
+  <si>
+    <t>Joey Lucchesi (SD - SP)</t>
+  </si>
+  <si>
+    <t>Andrew McCutchen (Phi - OF)</t>
+  </si>
+  <si>
+    <t>Diego Castillo (TB - SP,RP)</t>
+  </si>
+  <si>
+    <t>Jorge Alfaro (Mia - C)</t>
+  </si>
+  <si>
+    <t>Garrett Richards (SD - SP)</t>
+  </si>
+  <si>
+    <t>Luis Arraez (Min - 2B,3B,OF)</t>
+  </si>
+  <si>
+    <t>Michael Lorenzen (Pitcher) (Cin - RP)</t>
+  </si>
+  <si>
+    <t>Mitch Haniger (Sea - OF)</t>
+  </si>
+  <si>
+    <t>Pedro Báez (LAD - RP)</t>
+  </si>
+  <si>
+    <t>Ty Buttrey (LAA - RP)</t>
+  </si>
+  <si>
+    <t>Chris Taylor (LAD - 2B,SS,OF)</t>
+  </si>
+  <si>
+    <t>Corey Kluber  (Tex - SP)</t>
+  </si>
+  <si>
+    <t>Josh Hader  (Mil - RP)</t>
+  </si>
+  <si>
+    <t>Clayton Kershaw  (LAD - SP)</t>
+  </si>
+  <si>
+    <t>Justin Verlander  (Hou - SP)</t>
+  </si>
+  <si>
+    <t>Josh Donaldson  (Min - 3B)</t>
+  </si>
+  <si>
+    <t>Ramón Laureano  (Oak - OF)</t>
+  </si>
+  <si>
+    <t>Starling Marte  (Ari - OF)</t>
+  </si>
+  <si>
+    <t>Trevor Story  (Col - SS)</t>
+  </si>
+  <si>
+    <t>Tyrants</t>
+  </si>
+  <si>
+    <t>Carlos Carrasco (Cle - SP,RP)</t>
+  </si>
+  <si>
+    <t>Kenta Maeda (Min - SP,RP)</t>
+  </si>
+  <si>
+    <t>Tommy Edman (StL - 2B,3B,OF)</t>
+  </si>
+  <si>
+    <t>Ryan Yarbrough (TB - SP,RP)</t>
+  </si>
+  <si>
+    <t>Joe Musgrove (Pit - SP)</t>
+  </si>
+  <si>
+    <t>Joey Votto (Cin - 1B)</t>
+  </si>
+  <si>
+    <t>Paul DeJong (StL - SS)</t>
+  </si>
+  <si>
+    <t>Chad Green (NYY - SP,RP)</t>
+  </si>
+  <si>
+    <t>Yonny Chirinos (TB - SP,RP)</t>
+  </si>
+  <si>
+    <t>Carson Kelly (Ari - C)</t>
+  </si>
+  <si>
+    <t>David Peralta (Ari - OF)</t>
+  </si>
+  <si>
+    <t>Matt Carpenter (StL - 3B)</t>
+  </si>
+  <si>
+    <t>Austin Voth (Was - SP)</t>
+  </si>
+  <si>
+    <t>David Bote (ChC - 2B,3B)</t>
+  </si>
+  <si>
+    <t>Alex Wood (LAD - SP)</t>
+  </si>
+  <si>
+    <t>Justin Wilson (NYM - RP)</t>
+  </si>
+  <si>
+    <t>Luis Urías (Mil - 2B,SS)</t>
+  </si>
+  <si>
+    <t>James Paxton  (NYY - SP)</t>
+  </si>
+  <si>
+    <t>Chris Sale  (Bos - SP)</t>
+  </si>
+  <si>
+    <t>Dinelson Lamet  (SD - SP)</t>
+  </si>
+  <si>
+    <t>Michael Brantley  (Hou - OF)</t>
+  </si>
+  <si>
+    <t>Aaron Judge  (NYY - OF)</t>
+  </si>
+  <si>
+    <t>DJ LeMahieu  (NYY - 1B,2B,3B)</t>
+  </si>
+  <si>
+    <t>Javier Báez  (ChC - SS)</t>
+  </si>
+  <si>
+    <t>Mike Trout  (LAA - OF)</t>
+  </si>
+  <si>
+    <t>Bats</t>
+  </si>
+  <si>
+    <t>Arms</t>
+  </si>
+  <si>
+    <t>Bench</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Shin-Soo Choo (Tex - OF)</t>
+  </si>
+  <si>
     <t>Nick Castellanos (Cin - OF)</t>
-  </si>
-  <si>
-    <t>Franmil Reyes (Cle - OF)</t>
-  </si>
-  <si>
-    <t>Matthew Boyd (Det - SP)</t>
-  </si>
-  <si>
-    <t>Max Fried (Atl - SP)</t>
-  </si>
-  <si>
-    <t>Oscar Mercado (Cle - OF)</t>
-  </si>
-  <si>
-    <t>Willie Calhoun (Tex - OF)</t>
-  </si>
-  <si>
-    <t>Lance McCullers Jr. (Hou - SP)</t>
-  </si>
-  <si>
-    <t>Griffin Canning (LAA - SP)</t>
-  </si>
-  <si>
-    <t>Josh James (Hou - RP)</t>
-  </si>
-  <si>
-    <t>Ryan McMahon (Col - 1B,2B,3B)</t>
-  </si>
-  <si>
-    <t>Omar Narváez (Mil - C)</t>
-  </si>
-  <si>
-    <t>Freddy Peralta (Mil - SP,RP)</t>
-  </si>
-  <si>
-    <t>Giovanny Gallegos (StL - RP)</t>
-  </si>
-  <si>
-    <t>Brandon Lowe (TB - 1B,2B,OF)</t>
-  </si>
-  <si>
-    <t>Aaron Bummer (CWS - RP)</t>
-  </si>
-  <si>
-    <t>Joc Pederson (LAD - 1B,OF)</t>
-  </si>
-  <si>
-    <t>Corbin Burnes (Mil - SP,RP)</t>
-  </si>
-  <si>
-    <t>MacKenzie Gore  (SD - SP)</t>
-  </si>
-  <si>
-    <t>Chris Paddack  (SD - SP)</t>
-  </si>
-  <si>
-    <t>Gerrit Cole  (NYY - SP)</t>
-  </si>
-  <si>
-    <t>Gavin Lux  (LAD - 2B)</t>
-  </si>
-  <si>
-    <t>Matt Chapman  (Oak - 3B)</t>
-  </si>
-  <si>
-    <t>Matt Olson  (Oak - 1B)</t>
-  </si>
-  <si>
-    <t>Bo Bichette  (Tor - SS)</t>
-  </si>
-  <si>
-    <t>Keston Hiura  (Mil - 2B)</t>
-  </si>
-  <si>
-    <t>ReganSmash</t>
-  </si>
-  <si>
-    <t>Gary Sánchez (NYY - C)</t>
-  </si>
-  <si>
-    <t>Roberto Osuna (Hou - RP)</t>
-  </si>
-  <si>
-    <t>Nick Anderson (TB - RP)</t>
-  </si>
-  <si>
-    <t>Yuli Gurriel (Hou - 1B,3B)</t>
-  </si>
-  <si>
-    <t>Elvis Andrus (Tex - SS)</t>
-  </si>
-  <si>
-    <t>Michael Chavis (Bos - 1B,2B)</t>
-  </si>
-  <si>
-    <t>Caleb Smith (Mia - SP)</t>
-  </si>
-  <si>
-    <t>A.J. Puk (Oak - RP)</t>
-  </si>
-  <si>
-    <t>Hunter Renfroe (TB - OF)</t>
-  </si>
-  <si>
-    <t>Didi Gregorius (Phi - SS)</t>
-  </si>
-  <si>
-    <t>César Hernández (Cle - 2B)</t>
-  </si>
-  <si>
-    <t>Joe Jiménez (Det - RP)</t>
-  </si>
-  <si>
-    <t>Ross Stripling (LAD - SP,RP)</t>
-  </si>
-  <si>
-    <t>Aníbal Sánchez (Was - SP)</t>
-  </si>
-  <si>
-    <t>Avisaíl García (Mil - OF)</t>
-  </si>
-  <si>
-    <t>Nick Madrigal (CWS - 2B,SS)</t>
-  </si>
-  <si>
-    <t>Randal Grichuk (Tor - OF)</t>
-  </si>
-  <si>
-    <t>Zac Gallen  (Ari - SP)</t>
-  </si>
-  <si>
-    <t>Mike Soroka  (Atl - SP)</t>
-  </si>
-  <si>
-    <t>Yu Darvish  (ChC - SP)</t>
-  </si>
-  <si>
-    <t>Luis Castillo  (Cin - SP)</t>
-  </si>
-  <si>
-    <t>Luis Robert  (CWS - OF)</t>
-  </si>
-  <si>
-    <t>Yordan Alvarez  (Hou - OF)</t>
-  </si>
-  <si>
-    <t>Alex Bregman  (Hou - 3B,SS)</t>
-  </si>
-  <si>
-    <t>Juan Soto  (Was - OF)</t>
-  </si>
-  <si>
-    <t>B.Ruth is Dominican</t>
-  </si>
-  <si>
-    <t>Marcell Ozuna (Atl - OF)</t>
-  </si>
-  <si>
-    <t>Mike Moustakas (Cin - 2B,3B)</t>
-  </si>
-  <si>
-    <t>David Dahl (Col - OF)</t>
-  </si>
-  <si>
-    <t>Andrew Heaney (LAA - SP)</t>
-  </si>
-  <si>
-    <t>Héctor Neris (Phi - RP)</t>
-  </si>
-  <si>
-    <t>Khris Davis (Oak - Util)</t>
-  </si>
-  <si>
-    <t>Keone Kela (Pit - RP)</t>
-  </si>
-  <si>
-    <t>José Leclerc (Tex - SP,RP)</t>
-  </si>
-  <si>
-    <t>Edwin Encarnación (CWS - 1B)</t>
-  </si>
-  <si>
-    <t>Sean Doolittle (Was - RP)</t>
-  </si>
-  <si>
-    <t>Byron Buxton (Min - OF)</t>
-  </si>
-  <si>
-    <t>Sam Hilliard (Col - OF)</t>
-  </si>
-  <si>
-    <t>Kwang-Hyun Kim (StL - RP)</t>
-  </si>
-  <si>
-    <t>Austin Hays (Bal - OF)</t>
-  </si>
-  <si>
-    <t>Brandon Kintzler (Mia - RP)</t>
-  </si>
-  <si>
-    <t>Jesús Aguilar (Mia - 1B)</t>
-  </si>
-  <si>
-    <t>Jonathan Loaisiga (NYY - SP,RP)</t>
-  </si>
-  <si>
-    <t>José Berríos  (Min - SP)</t>
-  </si>
-  <si>
-    <t>Charlie Morton  (TB - SP)</t>
-  </si>
-  <si>
-    <t>Patrick Corbin  (Was - SP)</t>
-  </si>
-  <si>
-    <t>Tim Anderson  (CWS - SS)</t>
-  </si>
-  <si>
-    <t>J.T. Realmuto  (Phi - C)</t>
-  </si>
-  <si>
-    <t>Giancarlo Stanton  (NYY - OF)</t>
-  </si>
-  <si>
-    <t>George Springer  (Hou - OF)</t>
-  </si>
-  <si>
-    <t>Nolan Arenado  (Col - 3B)</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>Brandon Woodruff (Mil - SP)</t>
-  </si>
-  <si>
-    <t>Corey Seager (LAD - SS)</t>
-  </si>
-  <si>
-    <t>Will Smith (LAD - C)</t>
-  </si>
-  <si>
-    <t>Emilio Pagán (SD - RP)</t>
-  </si>
-  <si>
-    <t>Lorenzo Cain (Mil - OF)</t>
-  </si>
-  <si>
-    <t>Brandon Nimmo (NYM - OF)</t>
-  </si>
-  <si>
-    <t>Mark Canha (Oak - 1B,OF)</t>
-  </si>
-  <si>
-    <t>Mitch Keller (Pit - SP)</t>
-  </si>
-  <si>
-    <t>Trevor May (Min - RP)</t>
-  </si>
-  <si>
-    <t>Trent Grisham (SD - OF)</t>
-  </si>
-  <si>
-    <t>Shane Greene (Atl - RP)</t>
-  </si>
-  <si>
-    <t>Pablo López (Mia - SP)</t>
-  </si>
-  <si>
-    <t>Nico Hoerner (ChC - SS)</t>
-  </si>
-  <si>
-    <t>Wil Myers (SD - 1B,OF)</t>
-  </si>
-  <si>
-    <t>Matt Manning (Det - SP)</t>
-  </si>
-  <si>
-    <t>Niko Goodrum (Det - 1B,2B,SS,OF)</t>
-  </si>
-  <si>
-    <t>Daniel Hudson (Was - RP)</t>
-  </si>
-  <si>
-    <t>Julio Urías  (LAD - SP,RP)</t>
-  </si>
-  <si>
-    <t>Jesús Luzardo  (Oak - RP)</t>
-  </si>
-  <si>
-    <t>Stephen Strasburg  (Was - SP)</t>
-  </si>
-  <si>
-    <t>Josh Bell  (Pit - 1B)</t>
-  </si>
-  <si>
-    <t>Max Muncy  (LAD - 1B,2B,3B)</t>
-  </si>
-  <si>
-    <t>Austin Meadows  (TB - OF)</t>
-  </si>
-  <si>
-    <t>Pete Alonso  (NYM - 1B)</t>
-  </si>
-  <si>
-    <t>Rafael Devers  (Bos - 3B)</t>
-  </si>
-  <si>
-    <t>A Red Sock</t>
-  </si>
-  <si>
-    <t>Max Kepler (Min - OF)</t>
-  </si>
-  <si>
-    <t>Ken Giles (Tor - RP)</t>
-  </si>
-  <si>
-    <t>Willson Contreras (ChC - C)</t>
-  </si>
-  <si>
-    <t>Archie Bradley (Ari - RP)</t>
-  </si>
-  <si>
-    <t>Marcus Stroman (NYM - SP)</t>
-  </si>
-  <si>
-    <t>Amed Rosario (NYM - SS)</t>
-  </si>
-  <si>
-    <t>Justin Upton (LAA - OF)</t>
-  </si>
-  <si>
-    <t>Brett Gardner (NYY - OF)</t>
-  </si>
-  <si>
-    <t>Steven Matz (NYM - SP)</t>
-  </si>
-  <si>
-    <t>Danny Jansen (Tor - C)</t>
-  </si>
-  <si>
-    <t>Matt Barnes (Bos - RP)</t>
-  </si>
-  <si>
-    <t>Mike Tauchman (NYY - OF)</t>
-  </si>
-  <si>
-    <t>Jesse Winker (Cin - OF)</t>
-  </si>
-  <si>
-    <t>J.A. Happ (NYY - SP)</t>
-  </si>
-  <si>
-    <t>Hunter Harvey (Bal - RP)</t>
-  </si>
-  <si>
-    <t>John Means (Bal - SP)</t>
-  </si>
-  <si>
-    <t>Tommy La Stella (LAA - 2B,3B)</t>
-  </si>
-  <si>
-    <t>Jack Flaherty  (StL - SP)</t>
-  </si>
-  <si>
-    <t>Max Scherzer  (Was - SP)</t>
-  </si>
-  <si>
-    <t>Jacob deGrom  (NYM - SP)</t>
-  </si>
-  <si>
-    <t>Jorge Soler  (KC - OF)</t>
-  </si>
-  <si>
-    <t>Whit Merrifield  (KC - 2B,OF)</t>
-  </si>
-  <si>
-    <t>Anthony Rendon  (LAA - 3B)</t>
-  </si>
-  <si>
-    <t>Freddie Freeman  (Atl - 1B)</t>
-  </si>
-  <si>
-    <t>Francisco Lindor  (Cle - SS)</t>
-  </si>
-  <si>
-    <t>Againbetterlookinbro</t>
-  </si>
-  <si>
-    <t>Rhys Hoskins (Phi - 1B)</t>
-  </si>
-  <si>
-    <t>Carlos Santana (Cle - 1B)</t>
-  </si>
-  <si>
-    <t>Shohei Ohtani (Pitcher) (LAA - SP)</t>
-  </si>
-  <si>
-    <t>Adam Eaton (Was - OF)</t>
-  </si>
-  <si>
-    <t>Lourdes Gurriel Jr. (Tor - 2B,OF)</t>
-  </si>
-  <si>
-    <t>Ryan Pressly (Hou - RP)</t>
-  </si>
-  <si>
-    <t>Joey Lucchesi (SD - SP)</t>
-  </si>
-  <si>
-    <t>Andrew McCutchen (Phi - OF)</t>
-  </si>
-  <si>
-    <t>Diego Castillo (TB - SP,RP)</t>
-  </si>
-  <si>
-    <t>Jorge Alfaro (Mia - C)</t>
-  </si>
-  <si>
-    <t>Garrett Richards (SD - SP)</t>
-  </si>
-  <si>
-    <t>Luis Arraez (Min - 2B,3B,OF)</t>
-  </si>
-  <si>
-    <t>Michael Lorenzen (Pitcher) (Cin - RP)</t>
-  </si>
-  <si>
-    <t>Mitch Haniger (Sea - OF)</t>
-  </si>
-  <si>
-    <t>Pedro Báez (LAD - RP)</t>
-  </si>
-  <si>
-    <t>Ty Buttrey (LAA - RP)</t>
-  </si>
-  <si>
-    <t>Chris Taylor (LAD - 2B,SS,OF)</t>
-  </si>
-  <si>
-    <t>Corey Kluber  (Tex - SP)</t>
-  </si>
-  <si>
-    <t>Josh Hader  (Mil - RP)</t>
-  </si>
-  <si>
-    <t>Clayton Kershaw  (LAD - SP)</t>
-  </si>
-  <si>
-    <t>Justin Verlander  (Hou - SP)</t>
-  </si>
-  <si>
-    <t>Josh Donaldson  (Min - 3B)</t>
-  </si>
-  <si>
-    <t>Ramón Laureano  (Oak - OF)</t>
-  </si>
-  <si>
-    <t>Starling Marte  (Ari - OF)</t>
-  </si>
-  <si>
-    <t>Trevor Story  (Col - SS)</t>
-  </si>
-  <si>
-    <t>Tyrants</t>
-  </si>
-  <si>
-    <t>Carlos Carrasco (Cle - SP,RP)</t>
-  </si>
-  <si>
-    <t>Kenta Maeda (Min - SP,RP)</t>
-  </si>
-  <si>
-    <t>Tommy Edman (StL - 2B,3B,OF)</t>
-  </si>
-  <si>
-    <t>Ryan Yarbrough (TB - SP,RP)</t>
-  </si>
-  <si>
-    <t>Joe Musgrove (Pit - SP)</t>
-  </si>
-  <si>
-    <t>Joey Votto (Cin - 1B)</t>
-  </si>
-  <si>
-    <t>Paul DeJong (StL - SS)</t>
-  </si>
-  <si>
-    <t>Chad Green (NYY - SP,RP)</t>
-  </si>
-  <si>
-    <t>Yonny Chirinos (TB - SP,RP)</t>
-  </si>
-  <si>
-    <t>Carson Kelly (Ari - C)</t>
-  </si>
-  <si>
-    <t>David Peralta (Ari - OF)</t>
-  </si>
-  <si>
-    <t>Matt Carpenter (StL - 3B)</t>
-  </si>
-  <si>
-    <t>Austin Voth (Was - SP)</t>
-  </si>
-  <si>
-    <t>David Bote (ChC - 2B,3B)</t>
-  </si>
-  <si>
-    <t>Alex Wood (LAD - SP)</t>
-  </si>
-  <si>
-    <t>Justin Wilson (NYM - RP)</t>
-  </si>
-  <si>
-    <t>Luis Urías (Mil - 2B,SS)</t>
-  </si>
-  <si>
-    <t>James Paxton  (NYY - SP)</t>
-  </si>
-  <si>
-    <t>Chris Sale  (Bos - SP)</t>
-  </si>
-  <si>
-    <t>Dinelson Lamet  (SD - SP)</t>
-  </si>
-  <si>
-    <t>Michael Brantley  (Hou - OF)</t>
-  </si>
-  <si>
-    <t>Aaron Judge  (NYY - OF)</t>
-  </si>
-  <si>
-    <t>DJ LeMahieu  (NYY - 1B,2B,3B)</t>
-  </si>
-  <si>
-    <t>Javier Báez  (ChC - SS)</t>
-  </si>
-  <si>
-    <t>Mike Trout  (LAA - OF)</t>
-  </si>
-  <si>
-    <t>Bats</t>
-  </si>
-  <si>
-    <t>Arms</t>
-  </si>
-  <si>
-    <t>Bench</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Shin-Soo Choo (Tex - OF)</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1518,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D31" sqref="D31"/>
+      <selection pane="topRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1528,7 +1528,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1555,29 +1555,29 @@
         <v>181</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -1601,30 +1601,30 @@
         <v>159</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -1648,30 +1648,30 @@
         <v>176</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -1695,30 +1695,30 @@
         <v>178</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -1742,30 +1742,30 @@
         <v>179</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -1789,30 +1789,30 @@
         <v>161</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>25</v>
@@ -1836,30 +1836,30 @@
         <v>180</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>182</v>
+        <v>367</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
@@ -1883,30 +1883,30 @@
         <v>177</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
@@ -1930,30 +1930,30 @@
         <v>170</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -1962,7 +1962,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>81</v>
@@ -1977,30 +1977,30 @@
         <v>156</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -2024,30 +2024,30 @@
         <v>163</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>20</v>
@@ -2071,30 +2071,30 @@
         <v>175</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -2118,30 +2118,30 @@
         <v>174</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
@@ -2165,30 +2165,30 @@
         <v>162</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
@@ -2212,30 +2212,30 @@
         <v>157</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -2259,30 +2259,30 @@
         <v>173</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>2</v>
@@ -2306,30 +2306,30 @@
         <v>158</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
@@ -2353,30 +2353,30 @@
         <v>160</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -2400,30 +2400,30 @@
         <v>165</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>6</v>
@@ -2447,30 +2447,30 @@
         <v>166</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>8</v>
@@ -2494,30 +2494,30 @@
         <v>164</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>16</v>
@@ -2541,30 +2541,30 @@
         <v>167</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -2588,30 +2588,30 @@
         <v>172</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>10</v>
@@ -2635,30 +2635,30 @@
         <v>168</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
@@ -2682,30 +2682,30 @@
         <v>171</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>17</v>
@@ -2729,25 +2729,25 @@
         <v>169</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/Fantasy_TeamList_1.xlsx
+++ b/Fantasy_TeamList_1.xlsx
@@ -1139,7 +1139,7 @@
     <t>Shin-Soo Choo (Tex - OF)</t>
   </si>
   <si>
-    <t>Nick Castellanos (Cin - OF)</t>
+    <t>Nicholas Castellanos (Cin - OF)</t>
   </si>
 </sst>
 </file>
@@ -1517,8 +1517,8 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I31" sqref="I31"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
